--- a/ブログ記事設計書/ブログ記事設計書.xlsx
+++ b/ブログ記事設計書/ブログ記事設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\03_flytech\03_設計書_\ブログ記事設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38635B52-A719-4E7F-8E92-52F266AF1695}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7956F-03DB-42D0-81D8-B5AABA27BC5A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22116" yWindow="1392" windowWidth="23484" windowHeight="22896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13416" yWindow="2244" windowWidth="23484" windowHeight="22896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -954,6 +954,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -989,11 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1332,9 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92AD3E9-195B-40AB-99C3-AD3A3B8D005F}">
   <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18"/>
   <cols>
@@ -1356,7 +1354,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="42">
@@ -1598,9 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ADD3E7-D690-45FE-913B-8F112E6A595D}">
   <dimension ref="B2:AN69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -1651,10 +1647,10 @@
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AM2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="47"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="2:40">
       <c r="B3" s="13"/>
@@ -1667,10 +1663,10 @@
       <c r="E3" s="42">
         <v>33</v>
       </c>
-      <c r="AM3" s="48" t="s">
+      <c r="AM3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="48"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="13"/>
@@ -1771,7 +1767,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="44" t="s">
         <v>56</v>
       </c>
       <c r="N9" s="22"/>
@@ -1863,22 +1859,22 @@
       <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
       <c r="AN15" s="16"/>
     </row>
     <row r="16" spans="2:40">
@@ -1886,22 +1882,22 @@
       <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
       <c r="AN16" s="16"/>
     </row>
     <row r="17" spans="2:40">
@@ -1947,24 +1943,24 @@
       <c r="C23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
       <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="2:40">
@@ -1984,36 +1980,36 @@
       <c r="D26" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
       <c r="AN26" s="16"/>
     </row>
     <row r="27" spans="2:40">
@@ -2536,9 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1439426E-97B2-4295-8145-14DEF7BC493D}">
   <dimension ref="B2:AN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18"/>
   <cols>
@@ -2589,14 +2583,14 @@
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AM2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="47"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="2:40" ht="36">
       <c r="B3" s="13"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="46" t="s">
         <v>70</v>
       </c>
       <c r="D3" s="42">
@@ -2605,10 +2599,10 @@
       <c r="E3" s="42">
         <v>44</v>
       </c>
-      <c r="AM3" s="48" t="s">
+      <c r="AM3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="48"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="13"/>
@@ -2797,22 +2791,22 @@
       <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
       <c r="AN15" s="16"/>
     </row>
     <row r="16" spans="2:40">
@@ -2820,22 +2814,22 @@
       <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
       <c r="AN16" s="16"/>
     </row>
     <row r="17" spans="2:40">
@@ -2881,22 +2875,22 @@
       <c r="C23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
       <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="2:40">
@@ -2916,22 +2910,22 @@
       <c r="D26" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
       <c r="AN26" s="16"/>
     </row>
     <row r="27" spans="2:40">
@@ -3275,12 +3269,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E26:T26"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="D15:S15"/>
     <mergeCell ref="D16:S16"/>
     <mergeCell ref="D23:S23"/>
-    <mergeCell ref="E26:T26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3349,20 +3343,20 @@
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
-      <c r="AM2" s="46" t="s">
+      <c r="AM2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="47"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="2:40" ht="26.4">
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="AM3" s="48" t="s">
+      <c r="AM3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AN3" s="48"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="13"/>
@@ -3551,22 +3545,22 @@
       <c r="C15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="54"/>
       <c r="AN15" s="16"/>
     </row>
     <row r="16" spans="2:40">
@@ -3574,22 +3568,22 @@
       <c r="C16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="57"/>
       <c r="AN16" s="16"/>
     </row>
     <row r="17" spans="2:40">
@@ -3629,22 +3623,22 @@
       <c r="C23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
       <c r="AN23" s="16"/>
     </row>
     <row r="24" spans="2:40">
@@ -3664,22 +3658,22 @@
       <c r="D26" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
       <c r="AN26" s="16"/>
     </row>
     <row r="27" spans="2:40">
